--- a/docs/Mapping_casi_uso/morte/Morte_015.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="207">
   <si>
     <t>Sezione</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -679,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1323,7 +1335,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>58</v>
@@ -1346,7 +1358,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1392,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>58</v>
@@ -1415,7 +1427,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>58</v>
@@ -1481,7 +1493,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -1490,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1504,7 +1516,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>25</v>
@@ -1513,7 +1525,7 @@
         <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1527,7 +1539,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1869,214 +1881,214 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>124</v>
@@ -2085,21 +2097,21 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>125</v>
@@ -2108,182 +2120,182 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>130</v>
@@ -2292,44 +2304,44 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>132</v>
@@ -2338,21 +2350,21 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>133</v>
@@ -2361,21 +2373,21 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>134</v>
@@ -2384,21 +2396,21 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>135</v>
@@ -2407,815 +2419,815 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3226,19 +3238,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3249,19 +3261,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3272,19 +3284,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3295,19 +3307,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3318,369 +3330,507 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>16</v>
       </c>
     </row>
